--- a/Module_2/Hỏi Đáp.xlsx
+++ b/Module_2/Hỏi Đáp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CÂU HỎI</t>
   </si>
@@ -22,13 +22,16 @@
     <t>TRẢ LỜI</t>
   </si>
   <si>
-    <t>Có cú pháp nào dùng để ép kiểu chính bản thân không?</t>
+    <t>STT</t>
   </si>
   <si>
-    <t>Bài resize dùng abstract class được không, tại sao phải dùng interface trong khi class con nào cũng phải có chức năng đó,phải ép kiểu rườm rà?</t>
+    <t>Hình như không cần tạo file bằng tay, viết file sẽ tự tạo</t>
   </si>
   <si>
-    <t>STT</t>
+    <t>Đọc file cvs là để chuyển dữ liệu trong file ra dạng list trong code để thêm vào đối tượng vào và write lại file csv</t>
+  </si>
+  <si>
+    <t>Read file nếu file không tồn tại thì tạo file cần gì try catch vì đã không tồn tại</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -480,7 +483,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -494,22 +497,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10"/>
+      <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
